--- a/results/random_auc.xlsx
+++ b/results/random_auc.xlsx
@@ -35,265 +35,265 @@
     <t xml:space="preserve">stk.comp.ridge</t>
   </si>
   <si>
+    <t xml:space="preserve">random.stk.pf.ridge</t>
+  </si>
+  <si>
     <t xml:space="preserve">random.stk.comp.ridge</t>
   </si>
   <si>
-    <t xml:space="preserve">random.stk.pf.ridge</t>
-  </si>
-  <si>
     <t xml:space="preserve">BRCA</t>
   </si>
   <si>
+    <t xml:space="preserve">0.681(0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.647(0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.700(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.699(0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.701(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.724(0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.730(0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.606(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.656(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.678(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.697(0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.673(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.706(0.010)</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.707(0.010)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.659(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.718(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.724(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.726(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.753(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.747(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HNSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.608(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.657(0.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.681(0.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699(0.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.675(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.711(0.010)</t>
-  </si>
-  <si>
     <t xml:space="preserve">KIRC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.745(0.008)</t>
+    <t xml:space="preserve">0.731(0.008)</t>
   </si>
   <si>
     <t xml:space="preserve">0.715(0.010)</t>
   </si>
   <si>
+    <t xml:space="preserve">0.763(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.763(0.009)</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.769(0.009)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.774(0.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.780(0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.775(0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.784(0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.767(0.009)</t>
+    <t xml:space="preserve">0.758(0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.773(0.008)</t>
   </si>
   <si>
     <t xml:space="preserve">LAML</t>
   </si>
   <si>
-    <t xml:space="preserve">0.647(0.017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.710(0.015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.707(0.014)</t>
+    <t xml:space="preserve">0.645(0.017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.711(0.015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.709(0.014)</t>
   </si>
   <si>
     <t xml:space="preserve">0.726(0.015)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.717(0.014)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.697(0.015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.772(0.015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.775(0.015)</t>
+    <t xml:space="preserve">0.718(0.014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698(0.015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.765(0.016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.771(0.016)</t>
   </si>
   <si>
     <t xml:space="preserve">LGG</t>
   </si>
   <si>
-    <t xml:space="preserve">0.796(0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.801(0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.825(0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.836(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.844(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.838(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.863(0.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.864(0.009)</t>
+    <t xml:space="preserve">0.759(0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.754(0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.774(0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.789(0.012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.798(0.012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.795(0.012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.824(0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.823(0.012)</t>
   </si>
   <si>
     <t xml:space="preserve">LIHC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.624(0.014)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699(0.012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.700(0.013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.673(0.013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.678(0.013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.694(0.013)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.704(0.012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.699(0.013)</t>
+    <t xml:space="preserve">0.632(0.014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681(0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.684(0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.664(0.014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.669(0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.685(0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.691(0.013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.694(0.012)</t>
   </si>
   <si>
     <t xml:space="preserve">LUAD</t>
   </si>
   <si>
-    <t xml:space="preserve">0.691(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.665(0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.683(0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.694(0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.697(0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.707(0.011)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.696(0.011)</t>
+    <t xml:space="preserve">0.596(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.651(0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.671(0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.680(0.012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.685(0.011)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.690(0.011)</t>
   </si>
   <si>
     <t xml:space="preserve">LUSC</t>
   </si>
   <si>
+    <t xml:space="preserve">0.640(0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.550(0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.561(0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.647(0.010)</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.637(0.010)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.550(0.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.558(0.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.646(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.642(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.633(0.010)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.643(0.010)</t>
+    <t xml:space="preserve">0.631(0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.645(0.010)</t>
   </si>
   <si>
     <t xml:space="preserve">PAAD</t>
   </si>
   <si>
-    <t xml:space="preserve">0.714(0.015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.722(0.017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.715(0.017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.732(0.017)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.739(0.016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.739(0.015)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.706(0.016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.689(0.017)</t>
+    <t xml:space="preserve">0.711(0.016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.716(0.017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.707(0.017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.727(0.017)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.733(0.016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.732(0.015)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.681(0.018)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.689(0.018)</t>
   </si>
   <si>
     <t xml:space="preserve">SKCM</t>
   </si>
   <si>
-    <t xml:space="preserve">0.823(0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.692(0.009)</t>
+    <t xml:space="preserve">0.814(0.008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.686(0.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.804(0.008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.813(0.008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.817(0.008)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.822(0.007)</t>
   </si>
   <si>
     <t xml:space="preserve">0.811(0.008)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.826(0.008)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.831(0.007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.829(0.007)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.821(0.008)</t>
+    <t xml:space="preserve">0.818(0.008)</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -694,19 +694,19 @@
         <v>19</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
       </c>
       <c r="I3" t="s">
         <v>24</v>
@@ -732,155 +732,155 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>38</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>41</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>43</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>50</v>
-      </c>
-      <c r="I6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>55</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>57</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>58</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>59</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>64</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>65</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
         <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>73</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s">
-        <v>76</v>
       </c>
       <c r="I9" t="s">
         <v>75</v>
@@ -888,48 +888,48 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>78</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>81</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>82</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>83</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>84</v>
-      </c>
-      <c r="I10" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
         <v>86</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>87</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>88</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>87</v>
       </c>
       <c r="F11" t="s">
         <v>90</v>
